--- a/ExcelSantin/Folha de Pagamento.xlsx
+++ b/ExcelSantin/Folha de Pagamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Instrutor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D52B1DF-B19B-4D3F-8267-F484759B9456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C70840-5CAB-41DE-B980-5381F11BEC42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="4" xr2:uid="{B22DAD2D-49B0-48C2-AD31-1AB9FA64BD41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{B22DAD2D-49B0-48C2-AD31-1AB9FA64BD41}"/>
   </bookViews>
   <sheets>
     <sheet name="Colaboradores" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
   <si>
     <t>Registro</t>
   </si>
@@ -200,6 +200,51 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Fórmulas</t>
+  </si>
+  <si>
+    <t>Salário Mensal = Salário por hora * Carga Horária mensal</t>
+  </si>
+  <si>
+    <t>Normal = Horas * valor por hora</t>
+  </si>
+  <si>
+    <t>Valor por hora</t>
+  </si>
+  <si>
+    <t>Valor por hora -&gt; buscar na planilha de colaboradores</t>
+  </si>
+  <si>
+    <t>Total = Normal + acréscimo</t>
+  </si>
+  <si>
+    <t>Acréscimo = Normal * acrescimos sobre horas extras</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Horas normais = Horas Mensais * valor por hora</t>
+  </si>
+  <si>
+    <t>Horas Extras -&gt; buscar total na aba de horas extras</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>IRPF</t>
+  </si>
+  <si>
+    <t>fazer junto com professor</t>
+  </si>
+  <si>
+    <t>Outros descontos -&gt; somar todos os descontos da aba Descontos</t>
+  </si>
+  <si>
+    <t>Valor a recerber = Horas normais + Horas Extras - INSS - IRPF - Outros Descontos</t>
   </si>
 </sst>
 </file>
@@ -297,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,9 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -328,9 +370,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,6 +399,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -675,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9736FCC9-2987-4C65-85EC-0F78A6BF447C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,205 +743,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="24">
         <v>1001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>35</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>1002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>50</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>1003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>70</v>
       </c>
       <c r="E4" s="6">
         <v>220</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>1004</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>30</v>
       </c>
       <c r="E5" s="6">
         <v>180</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>1005</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>85</v>
       </c>
       <c r="E6" s="6">
         <v>200</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>1006</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>25</v>
       </c>
       <c r="E7" s="6">
         <v>150</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>1007</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>60</v>
       </c>
       <c r="E8" s="6">
         <v>200</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>1008</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>40</v>
       </c>
       <c r="E9" s="6">
         <v>160</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>1009</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>95</v>
       </c>
       <c r="E10" s="6">
         <v>200</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>1010</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>28</v>
       </c>
       <c r="E11" s="6">
         <v>220</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -899,10 +960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E05E56-8ACD-452F-8224-42F0756C0A82}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +980,7 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>45658</v>
       </c>
     </row>
@@ -931,36 +992,36 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -973,12 +1034,12 @@
         <f>Colaboradores!B2</f>
         <v>Ana Carolina</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -989,12 +1050,12 @@
         <f>Colaboradores!B3</f>
         <v>Bruno Almeida</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1005,12 +1066,12 @@
         <f>Colaboradores!B4</f>
         <v>Camila Santos</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -1021,12 +1082,12 @@
         <f>Colaboradores!B5</f>
         <v>Diego Ferreira</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1037,12 +1098,12 @@
         <f>Colaboradores!B6</f>
         <v>Eduardo Lima</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -1053,12 +1114,12 @@
         <f>Colaboradores!B7</f>
         <v>Fernanda Ribeiro</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -1069,12 +1130,12 @@
         <f>Colaboradores!B8</f>
         <v>Gabriel Martins</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -1085,12 +1146,12 @@
         <f>Colaboradores!B9</f>
         <v>Helena Oliveira</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1101,12 +1162,12 @@
         <f>Colaboradores!B10</f>
         <v>Isabela Rocha</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1117,24 +1178,65 @@
         <f>Colaboradores!B11</f>
         <v>João Pedro Costa</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1829,21 +1931,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89D67B0-4BF3-4E66-AFB2-B41FEF255499}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1856,151 +1959,187 @@
       <c r="D2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1003</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>45641</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="23">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="29"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1004</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>45641</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="23">
         <v>2</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="29"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1006</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>45646</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="29"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1007</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>45648</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="23">
         <v>1.5</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="29"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1008</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>45627</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="29"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1009</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>45631</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="29"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1006</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>45647</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="29"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1006</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>45647</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2011,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119B75F9-1CC0-4B62-80DC-CEBCED6AAC84}">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2025,7 +2164,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="7">
@@ -2033,118 +2172,118 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>2640</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20">
+      <c r="E6" s="16"/>
+      <c r="F6" s="18">
         <v>1320</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>3360</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>198</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18">
         <v>2571.29</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>4800</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>0.15</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>477</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20">
+      <c r="E8" s="17"/>
+      <c r="F8" s="18">
         <v>3856.94</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>6700</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>825</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20">
+      <c r="E9" s="17"/>
+      <c r="F9" s="18">
         <v>7507.49</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>1000000</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1311</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
